--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\All Data\63. EM IG Curves\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7E5F68-162D-4AE2-B8CE-677FCC53685B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A15A69C-FDD6-4923-840D-67D43F420A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
